--- a/Infiltrator/exclude list and labels to comments.xlsx
+++ b/Infiltrator/exclude list and labels to comments.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Infiltrator Exclude Memory List" sheetId="1" r:id="rId1"/>
     <sheet name="Dasmfw labels" sheetId="3" r:id="rId2"/>
-    <sheet name="Subroutine Map" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dasmfw labels'!$A$1:$B$4387</definedName>
@@ -11086,6355 +11085,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>358140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>807720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="441960" y="358140"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Start</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>518160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>967740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="441960" y="2042160"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Reset_Game_Select 2+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>807720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>518160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="922020" y="807720"/>
-          <a:ext cx="0" cy="1234440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>992841</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>255942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1305262</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>507402</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4022912" y="255942"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Erase_HiScore_Setts_Etc 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>381672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>992841</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>582930</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="381672"/>
-          <a:ext cx="2620832" cy="201258"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1010770</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1167652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1323191</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1419112</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4040841" y="1167652"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Erase_ZP_RAM 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>582930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1010770</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1293382</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="582930"/>
-          <a:ext cx="2638761" cy="710452"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1005392</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>662502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1317813</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>913962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4035463" y="662502"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Set_Jetman_Mvmt_Speed 2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>582930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1005392</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>788232</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="582930"/>
-          <a:ext cx="2633383" cy="205302"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>982980</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7399020" y="2057400"/>
-          <a:ext cx="1074420" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Reset_Screen_Disp_Scores </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>502920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>754380</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9044940" y="2026920"/>
-          <a:ext cx="1828800" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Reset_Color_RAM 1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>628650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="32" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8473440" y="2152650"/>
-          <a:ext cx="571500" cy="129540"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>822960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1074420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9044940" y="2346960"/>
-          <a:ext cx="1828800" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Reset_UDG_RAM 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>948690</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8473440" y="2282190"/>
-          <a:ext cx="571500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1493520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1196340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1447800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9075420" y="2720340"/>
-          <a:ext cx="1828800" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Display_P1_Score 3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1493520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1322070</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="36" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8473440" y="2282190"/>
-          <a:ext cx="601980" cy="563880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>312420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9044940" y="3108960"/>
-          <a:ext cx="1828800" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Display_Hi_Score 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8473440" y="2282190"/>
-          <a:ext cx="571500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1493520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9075420" y="3482340"/>
-          <a:ext cx="1828800" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Display_P2_Score 3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1493520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>560070</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="40" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8473440" y="2282190"/>
-          <a:ext cx="601980" cy="1325880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="2266950"/>
-          <a:ext cx="5996940" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1411044</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1513914</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="124" idx="3"/>
-          <a:endCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1411044" y="2282190"/>
-          <a:ext cx="5982597" cy="755724"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>645459</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1174376</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6705600" y="2282190"/>
-          <a:ext cx="688041" cy="416186"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>779930</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1353671</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6840071" y="2282190"/>
-          <a:ext cx="553570" cy="595481"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6263640" y="1607820"/>
-          <a:ext cx="1135380" cy="674370"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1203960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>758190</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6461760" y="1203960"/>
-          <a:ext cx="937260" cy="1078230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1135380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1386840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="TextBox 91"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11521440" y="2659380"/>
-          <a:ext cx="1828800" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Display_BCD_Bytes 4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1261110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1322070</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="3"/>
-          <a:endCxn id="92" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10904220" y="2785110"/>
-          <a:ext cx="617220" cy="60960"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1261110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="3"/>
-          <a:endCxn id="92" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10873740" y="2785110"/>
-          <a:ext cx="647700" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1261110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>560070</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Straight Arrow Connector 98"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="3"/>
-          <a:endCxn id="92" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10904220" y="2785110"/>
-          <a:ext cx="617220" cy="822960"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1411942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685351</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>337522</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="TextBox 111"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14762629" y="2935942"/>
-          <a:ext cx="1073075" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Copy_Char_To_UDG_RAM </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>83371</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>375622</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="Straight Arrow Connector 112"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="112" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13718689" y="3160732"/>
-          <a:ext cx="1043940" cy="262890"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>90991</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>794722</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="Straight Arrow Connector 113"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="112" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13726309" y="3160732"/>
-          <a:ext cx="1036320" cy="681990"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243391</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1099522</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="112" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13878709" y="3160732"/>
-          <a:ext cx="883920" cy="986790"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1261110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112732</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="Straight Arrow Connector 115"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="112" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13339482" y="2785110"/>
-          <a:ext cx="1423147" cy="375622"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190051</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>558502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112732</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="Straight Arrow Connector 116"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="112" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13825369" y="2082502"/>
-          <a:ext cx="937260" cy="1078230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1057835</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1127311</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112732</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="Straight Arrow Connector 118"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="112" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13769788" y="2581835"/>
-          <a:ext cx="992841" cy="578897"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450924</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1289124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1411044</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214704</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="TextBox 123"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="450924" y="2813124"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Game_Select0+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>967740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>930984</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1289124</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="Straight Arrow Connector 124"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="124" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="922020" y="2491740"/>
-          <a:ext cx="8964" cy="321384"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365312</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>40790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677732</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>292250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="TextBox 128"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1880347" y="3088790"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Display_Game_Select 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1411044</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1513914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365312</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="124" idx="3"/>
-          <a:endCxn id="129" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1411044" y="3037914"/>
-          <a:ext cx="469303" cy="176606"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>984325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1433905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="TextBox 136"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="441960" y="5556325"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Game_Start 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>930984</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>984325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="Straight Arrow Connector 137"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="124" idx="2"/>
-          <a:endCxn id="137" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="922020" y="3262704"/>
-          <a:ext cx="8964" cy="2293621"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1293382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1010770</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1209115</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="Straight Arrow Connector 143"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="1293382"/>
-          <a:ext cx="2638761" cy="4487733"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>159123</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>584946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>471544</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>836406</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="TextBox 148"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3189194" y="5156946"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Reset_Object_RAM 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>710676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>159123</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1209115</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="Straight Arrow Connector 149"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="149" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="5282676"/>
-          <a:ext cx="1787114" cy="498439"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162709</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1039020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475130</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1290480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="TextBox 153"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3192780" y="5611020"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Setup_Player_Lives 1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1164750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162709</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1209115</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="Straight Arrow Connector 154"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="154" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="5736750"/>
-          <a:ext cx="1790700" cy="44365"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475130</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>660476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1166756</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1164750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="Straight Arrow Connector 157"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="154" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5020236" y="5232476"/>
-          <a:ext cx="691626" cy="504274"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475130</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1147484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1479176</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1164750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="Straight Arrow Connector 158"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="154" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5020236" y="5719484"/>
-          <a:ext cx="1004046" cy="17266"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>150159</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>462580</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>256391</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="TextBox 163"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695265" y="3052931"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Game_Sel_Flash_Period 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677732</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130661</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>150159</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="Straight Arrow Connector 164"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="3"/>
-          <a:endCxn id="164" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3707803" y="3178661"/>
-          <a:ext cx="987462" cy="35859"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132229</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>363518</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>444650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>614978</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="TextBox 167"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4677335" y="3411518"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Display_String</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> 3</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677732</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132229</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>489248</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="169" name="Straight Arrow Connector 168"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="3"/>
-          <a:endCxn id="168" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3707803" y="3214520"/>
-          <a:ext cx="969532" cy="322728"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177053</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1286884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>489474</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14344</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="TextBox 172"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4722159" y="4334884"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Setup_Color_RAM_Ptr </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677732</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177053</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1412614</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="Straight Arrow Connector 173"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="3"/>
-          <a:endCxn id="173" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3707803" y="3214520"/>
-          <a:ext cx="1014356" cy="1246094"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177052</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>157331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1120588</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>408791</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="TextBox 177"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4722158" y="4729331"/>
-          <a:ext cx="2458571" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CONVERT_XY_TO_UDG_RAM_ADDR </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677732</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177052</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>283061</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="Straight Arrow Connector 178"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="3"/>
-          <a:endCxn id="178" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3707803" y="3214520"/>
-          <a:ext cx="1014355" cy="1640541"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132229</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>793823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>444650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1045283</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="TextBox 191"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4677335" y="3841823"/>
-          <a:ext cx="1827456" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>DSTR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> 1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1045957</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>614978</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1045957</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>793823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="193" name="Straight Arrow Connector 192"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="168" idx="2"/>
-          <a:endCxn id="192" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5591063" y="3662978"/>
-          <a:ext cx="0" cy="178845"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677732</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>132229</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>919553</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="Straight Arrow Connector 195"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="3"/>
-          <a:endCxn id="192" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3707803" y="3214520"/>
-          <a:ext cx="969532" cy="753033"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162708</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1487255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>753034</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>214715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="TextBox 199"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3192779" y="6059255"/>
-          <a:ext cx="2105361" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Reset_Level_Add_Extra_Life 2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1209115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162708</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88985</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="201" name="Straight Arrow Connector 200"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="3"/>
-          <a:endCxn id="200" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="5781115"/>
-          <a:ext cx="1790699" cy="403870"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>953070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1402650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="TextBox 238"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="441960" y="10097070"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Main_Loop  1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1433905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>953070</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="240" name="Straight Arrow Connector 239"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="2"/>
-          <a:endCxn id="239" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="922020" y="6005905"/>
-          <a:ext cx="0" cy="4091165"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1261782</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1117144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>475129</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1368604</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="TextBox 244"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2776817" y="13309144"/>
-          <a:ext cx="2243418" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>SEI_Load_Jetman_To_Obj_Ptr 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1242874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1261782</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1445479</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="246" name="Straight Arrow Connector 245"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="266" idx="3"/>
-          <a:endCxn id="245" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="13434874"/>
-          <a:ext cx="1374737" cy="202605"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>931209</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1261782</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1242874</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="251" name="Straight Arrow Connector 250"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="245" idx="1"/>
-          <a:endCxn id="256" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="931209" y="12331991"/>
-          <a:ext cx="1845608" cy="1102883"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>445994</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1416424</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>738386</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="TextBox 255"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="445994" y="12331991"/>
-          <a:ext cx="970430" cy="598395"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Next_Obj 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1402650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>931209</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139991</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="259" name="Straight Arrow Connector 258"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="2"/>
-          <a:endCxn id="256" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="922020" y="10546650"/>
-          <a:ext cx="9189" cy="1785341"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1220689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146269</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="TextBox 265"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="441960" y="13412689"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Triggers_Every_Frame 19</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>738386</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>931209</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1220689</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="267" name="Straight Arrow Connector 266"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="256" idx="2"/>
-          <a:endCxn id="266" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="922020" y="12930386"/>
-          <a:ext cx="9189" cy="482303"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>655912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1105492</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="TextBox 275"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="441960" y="14371912"/>
-          <a:ext cx="960120" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Load_Jetman_Rtn 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>655912</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="277" name="Straight Arrow Connector 276"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="266" idx="2"/>
-          <a:endCxn id="276" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="922020" y="13862269"/>
-          <a:ext cx="0" cy="509643"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>364110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>615570</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="282" name="TextBox 281"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2765932" y="14080110"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Flash_Score_Cntr_At_Zero? 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>821310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1072770</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="TextBox 282"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2765932" y="14537310"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Obj_Jetman_Looks? 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1197828</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1449288</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="284" name="TextBox 283"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2765932" y="14913828"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Obj_Jetman_Looks_2? 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>489840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>880702</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="285" name="Straight Arrow Connector 284"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="276" idx="3"/>
-          <a:endCxn id="282" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="14205840"/>
-          <a:ext cx="1363852" cy="390862"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>880702</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>947040</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="286" name="Straight Arrow Connector 285"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="276" idx="3"/>
-          <a:endCxn id="283" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="14596702"/>
-          <a:ext cx="1363852" cy="66338"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>880702</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1252818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1323558</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="287" name="Straight Arrow Connector 286"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="276" idx="3"/>
-          <a:endCxn id="284" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="14596702"/>
-          <a:ext cx="1363852" cy="442856"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>362973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="308" name="Straight Arrow Connector 307"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="315" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="7982973"/>
-          <a:ext cx="5074206" cy="2338887"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1314929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42389</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="TextBox 313"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="7410929"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Triggers_Every_Frame 19</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>237243</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>488703</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="TextBox 314"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="7857243"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Flying 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>716214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>967674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="TextBox 315"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="8336214"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Flash_Display_Score 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1173414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1424874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="TextBox 316"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="8793414"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Explosions_Plyr_Life_Lost? 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>358074</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="TextBox 317"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="9250614"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Stops_All 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>531157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>782617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="TextBox 318"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="9675157"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Stops_All_After_Score_Flash 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>966586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1218046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="TextBox 319"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="10110586"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Not_Triggered_2ABC 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1347586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>75046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="TextBox 320"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="10491586"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Not_Triggered_2A6D 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>193700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>445160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="TextBox 321"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="10861700"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Lev_Start_1st_Alien_onScr 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>563815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>815275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="TextBox 322"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="11231815"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Subroutine_2E74_On_IRQ? 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>890386</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1141846</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="TextBox 323"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="11558386"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Rocket_Ascend 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1238729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1490189</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="TextBox 324"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="11906729"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Rocket_Descend 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161043</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>412503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="TextBox 325"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="12353043"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Rocket_Descend 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>585586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>837046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="TextBox 326"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="12777586"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Fire_Pressed 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1031900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1130194</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1283360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="TextBox 327"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456189" y="13223900"/>
-          <a:ext cx="2239576" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Fire_Pressed_ 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>915670</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>959420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>928370</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1111842</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2052" name="Elbow Connector 2051"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="276" idx="2"/>
-          <a:endCxn id="239" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="-1440191" y="12459281"/>
-          <a:ext cx="4724422" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -4839"/>
-            <a:gd name="adj2" fmla="val 5580000"/>
-            <a:gd name="adj3" fmla="val 104839"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1440659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2060" name="Straight Arrow Connector 2059"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="314" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="7536659"/>
-          <a:ext cx="5074206" cy="2785201"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>841944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2062" name="Straight Arrow Connector 2061"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="316" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="8461944"/>
-          <a:ext cx="5074206" cy="1859916"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1299144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2064" name="Straight Arrow Connector 2063"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="317" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="8919144"/>
-          <a:ext cx="5074206" cy="1402716"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>232344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2066" name="Straight Arrow Connector 2065"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="318" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="9376344"/>
-          <a:ext cx="5074206" cy="945516"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>656887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2068" name="Straight Arrow Connector 2067"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="319" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="9800887"/>
-          <a:ext cx="5074206" cy="520973"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1092316</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2070" name="Straight Arrow Connector 2069"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="320" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1402080" y="10236316"/>
-          <a:ext cx="5074206" cy="85544"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1473316</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2072" name="Straight Arrow Connector 2071"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="321" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="295456"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>319430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2074" name="Straight Arrow Connector 2073"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="322" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="665570"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>689545</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2076" name="Straight Arrow Connector 2075"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="323" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="1035685"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1016116</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2078" name="Straight Arrow Connector 2077"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="324" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="1362256"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1364459</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2080" name="Straight Arrow Connector 2079"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="325" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="1710599"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>286773</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2082" name="Straight Arrow Connector 2081"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="326" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="2156913"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>711316</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2084" name="Straight Arrow Connector 2083"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="327" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="2581456"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1177860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1157630</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2086" name="Straight Arrow Connector 2085"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="328" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1402080" y="10321860"/>
-          <a:ext cx="5074206" cy="3027770"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18582,7 +12232,7 @@
         <v>$29FE</v>
       </c>
       <c r="F34" s="2" t="str">
-        <f t="shared" ref="F34:F65" si="8">E34&amp; " - "&amp;D34</f>
+        <f t="shared" ref="F34:F56" si="8">E34&amp; " - "&amp;D34</f>
         <v>$29FE - $2A04</v>
       </c>
     </row>
@@ -58650,20 +52300,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>